--- a/doc/外部設計/04_外部設計書（カレンダー更新画面）_チーム名.xlsx
+++ b/doc/外部設計/04_外部設計書（カレンダー更新画面）_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8130BB4E-6C23-4531-8FBB-2A05B23DE826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6352B6-A463-4BD6-8F76-B18A9FDAFC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -280,10 +280,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>button</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>text</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -434,19 +430,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>プルダウンメニューによるカレンダーまたはキー入力により日付を編集できる</t>
-    <rPh sb="22" eb="24">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>キー入力により予定名を編集できる</t>
     <rPh sb="2" eb="4">
       <t>ニュウリョク</t>
@@ -479,22 +462,6 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>プルダウンメニューによる時刻選択またはキー入力により時刻を編集できる</t>
-    <rPh sb="12" eb="16">
-      <t>ジコクセンタク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジコク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヘンシュウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -720,6 +687,45 @@
   </si>
   <si>
     <t>キャンセルボタン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プルダウンメニューによるカレンダーにより日付を編集できる</t>
+    <rPh sb="20" eb="22">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プルダウンメニューによる時刻選択により時刻を編集できる</t>
+    <rPh sb="12" eb="16">
+      <t>ジコクセンタク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>textarea</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>link</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1202,6 +1208,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1212,9 +1221,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3287,6 +3293,378 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>125944</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>151856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>27649</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>156756</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{997F4224-D0CB-4416-854F-B3A13A09BCC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3442885" y="3033369"/>
+          <a:ext cx="2399016" cy="389101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>予定を入力してください</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>227062</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>164237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>128767</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>169137</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33017342-42C4-4487-B187-689CA36CA470}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4043465" y="4006254"/>
+          <a:ext cx="2399016" cy="389101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>時間</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>選択</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>してください</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3613,8 +3991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="119" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="S87" sqref="S87"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3645,7 +4023,7 @@
       <c r="L1" s="28"/>
       <c r="M1" s="28"/>
       <c r="N1" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O1" s="28"/>
       <c r="P1" s="28"/>
@@ -3660,7 +4038,7 @@
       </c>
       <c r="X1" s="28"/>
       <c r="Y1" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z1" s="28"/>
       <c r="AA1" s="28"/>
@@ -3668,10 +4046,10 @@
       <c r="AC1" s="28"/>
       <c r="AD1" s="28"/>
       <c r="AE1" s="28"/>
-      <c r="AF1" s="41" t="s">
+      <c r="AF1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="41"/>
+      <c r="AG1" s="42"/>
       <c r="AH1" s="35"/>
       <c r="AI1" s="35"/>
       <c r="AJ1" s="35"/>
@@ -3697,7 +4075,7 @@
       <c r="L2" s="37"/>
       <c r="M2" s="37"/>
       <c r="N2" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
@@ -3711,7 +4089,7 @@
         <v>1</v>
       </c>
       <c r="X2" s="37"/>
-      <c r="Y2" s="42">
+      <c r="Y2" s="38">
         <v>45085</v>
       </c>
       <c r="Z2" s="37"/>
@@ -3720,17 +4098,17 @@
       <c r="AC2" s="37"/>
       <c r="AD2" s="37"/>
       <c r="AE2" s="37"/>
-      <c r="AF2" s="38" t="s">
+      <c r="AF2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="40"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="41"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25"/>
@@ -5384,7 +5762,7 @@
       <c r="D44" s="8"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -5428,7 +5806,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -5472,7 +5850,7 @@
       <c r="D46" s="8"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -5516,7 +5894,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -5558,7 +5936,7 @@
       <c r="B48" s="6"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -5658,7 +6036,7 @@
       <c r="T50" s="8"/>
       <c r="U50" s="8"/>
       <c r="V50" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
@@ -5684,7 +6062,7 @@
       <c r="B51" s="6"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -5703,7 +6081,7 @@
       <c r="U51" s="8"/>
       <c r="V51" s="2"/>
       <c r="W51" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
@@ -5770,7 +6148,7 @@
       <c r="B53" s="6"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -6021,7 +6399,7 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="E59" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -6064,7 +6442,7 @@
       <c r="B60" s="6"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -6105,7 +6483,7 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="E61" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -6148,7 +6526,7 @@
       <c r="B62" s="6"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -6189,7 +6567,7 @@
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="E63" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -6232,7 +6610,7 @@
       <c r="B64" s="6"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -6273,7 +6651,7 @@
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="E65" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -6316,7 +6694,7 @@
       <c r="B66" s="6"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -6357,7 +6735,7 @@
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="E67" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -6400,7 +6778,7 @@
       <c r="B68" s="6"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -6441,7 +6819,7 @@
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="E69" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -6484,7 +6862,7 @@
       <c r="B70" s="6"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -6525,7 +6903,7 @@
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="E71" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -6570,7 +6948,7 @@
       <c r="D72" s="8"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -6900,7 +7278,7 @@
       <c r="J79" s="15"/>
       <c r="K79" s="17"/>
       <c r="L79" s="14" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>
@@ -7000,7 +7378,7 @@
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
       <c r="L81" s="14" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
@@ -7038,24 +7416,24 @@
         <v>4</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
       <c r="L82" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
       <c r="O82" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
@@ -7065,13 +7443,13 @@
       <c r="U82" s="14"/>
       <c r="V82" s="17"/>
       <c r="W82" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X82" s="15"/>
       <c r="Y82" s="15"/>
       <c r="Z82" s="17"/>
       <c r="AA82" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AB82" s="15"/>
       <c r="AC82" s="17"/>
@@ -7094,24 +7472,24 @@
         <v>5</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
       <c r="L83" s="14" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
       <c r="O83" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P83" s="15"/>
       <c r="Q83" s="15"/>
@@ -7121,18 +7499,18 @@
       <c r="U83" s="14"/>
       <c r="V83" s="17"/>
       <c r="W83" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X83" s="15"/>
       <c r="Y83" s="15"/>
       <c r="Z83" s="17"/>
       <c r="AA83" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AB83" s="15"/>
       <c r="AC83" s="17"/>
       <c r="AD83" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AE83" s="15"/>
       <c r="AF83" s="15"/>
@@ -7152,24 +7530,24 @@
         <v>6</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
       <c r="L84" s="14" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
       <c r="O84" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P84" s="15"/>
       <c r="Q84" s="15"/>
@@ -7179,18 +7557,18 @@
       <c r="U84" s="14"/>
       <c r="V84" s="17"/>
       <c r="W84" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X84" s="15"/>
       <c r="Y84" s="15"/>
       <c r="Z84" s="17"/>
       <c r="AA84" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AB84" s="15"/>
       <c r="AC84" s="17"/>
       <c r="AD84" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AE84" s="15"/>
       <c r="AF84" s="15"/>
@@ -7210,24 +7588,24 @@
         <v>7</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
       <c r="H85" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
       <c r="K85" s="17"/>
       <c r="L85" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
       <c r="O85" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P85" s="15"/>
       <c r="Q85" s="15"/>
@@ -7237,13 +7615,13 @@
       <c r="U85" s="14"/>
       <c r="V85" s="17"/>
       <c r="W85" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X85" s="15"/>
       <c r="Y85" s="15"/>
       <c r="Z85" s="17"/>
       <c r="AA85" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AB85" s="15"/>
       <c r="AC85" s="17"/>
@@ -7266,24 +7644,24 @@
         <v>8</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
       <c r="G86" s="13"/>
       <c r="H86" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I86" s="16"/>
       <c r="J86" s="15"/>
       <c r="K86" s="17"/>
       <c r="L86" s="14" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
       <c r="O86" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P86" s="15"/>
       <c r="Q86" s="15"/>
@@ -7293,13 +7671,13 @@
       <c r="U86" s="14"/>
       <c r="V86" s="17"/>
       <c r="W86" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X86" s="15"/>
       <c r="Y86" s="15"/>
       <c r="Z86" s="17"/>
       <c r="AA86" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AB86" s="15"/>
       <c r="AC86" s="17"/>
@@ -7322,19 +7700,19 @@
         <v>9</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
       <c r="G87" s="13"/>
       <c r="H87" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I87" s="16"/>
       <c r="J87" s="15"/>
       <c r="K87" s="17"/>
       <c r="L87" s="14" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="M87" s="15"/>
       <c r="N87" s="17"/>
@@ -7372,19 +7750,19 @@
         <v>10</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
       <c r="G88" s="13"/>
       <c r="H88" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I88" s="16"/>
       <c r="J88" s="15"/>
       <c r="K88" s="17"/>
       <c r="L88" s="14" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="M88" s="15"/>
       <c r="N88" s="17"/>
@@ -7422,19 +7800,19 @@
         <v>11</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
       <c r="G89" s="13"/>
       <c r="H89" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I89" s="16"/>
       <c r="J89" s="15"/>
       <c r="K89" s="17"/>
       <c r="L89" s="14" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="M89" s="15"/>
       <c r="N89" s="17"/>

--- a/doc/外部設計/04_外部設計書（カレンダー更新画面）_チーム名.xlsx
+++ b/doc/外部設計/04_外部設計書（カレンダー更新画面）_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6352B6-A463-4BD6-8F76-B18A9FDAFC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080EB055-EB97-4C30-9F21-AEA9C9EC363D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="88">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -535,25 +535,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>取得した予定の予定IDと合致するレコードを削除する</t>
-    <rPh sb="0" eb="2">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガッチ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>取得した予定の予定IDと合致するレコードを4～8のvalueをもとに更新する</t>
     <rPh sb="0" eb="2">
       <t>シュトク</t>
@@ -726,6 +707,38 @@
   </si>
   <si>
     <t>link</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アラートを表示「削除してよろしいですか？ [キャンセル | OK]」</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OKを押したら取得した予定の予定IDと合致するレコードを削除する</t>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガッチ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サクジョ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1246,15 +1259,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>41051</xdr:colOff>
+      <xdr:colOff>41046</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>88515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>173181</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>187183</xdr:rowOff>
+      <xdr:colOff>204906</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>172890</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1269,10 +1282,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3108261" y="1241120"/>
-          <a:ext cx="3878096" cy="5669592"/>
-          <a:chOff x="22637452" y="653712"/>
-          <a:chExt cx="2680177" cy="3821446"/>
+          <a:off x="3134463" y="1239085"/>
+          <a:ext cx="3948628" cy="6028984"/>
+          <a:chOff x="22637451" y="653712"/>
+          <a:chExt cx="2702106" cy="4070774"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -1288,10 +1301,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="22637452" y="653712"/>
-            <a:ext cx="2680177" cy="3821446"/>
+            <a:off x="22637451" y="653712"/>
+            <a:ext cx="2702106" cy="4070774"/>
             <a:chOff x="1981200" y="1"/>
-            <a:chExt cx="2614886" cy="3872405"/>
+            <a:chExt cx="2636281" cy="4125058"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -1308,7 +1321,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="1981200" y="1"/>
-              <a:ext cx="2614886" cy="3872405"/>
+              <a:ext cx="2636281" cy="4125058"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1467,7 +1480,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2120900" y="3389044"/>
+              <a:off x="3601837" y="3752051"/>
               <a:ext cx="730250" cy="313850"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
@@ -1515,7 +1528,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3765550" y="3369995"/>
+              <a:off x="2383918" y="3746123"/>
               <a:ext cx="749300" cy="313850"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
@@ -1563,12 +1576,15 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2914650" y="3376345"/>
+              <a:off x="3057130" y="3376345"/>
               <a:ext cx="730250" cy="313850"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="2">
@@ -3094,10 +3110,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>237324</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>180878</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>160483</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1584</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="549438" cy="530658"/>
     <xdr:sp macro="" textlink="">
@@ -3113,7 +3129,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3354597" y="6265333"/>
+          <a:off x="5475273" y="6725113"/>
           <a:ext cx="549438" cy="530658"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3161,10 +3177,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>46181</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>23092</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161442</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>151159</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="727363" cy="530658"/>
     <xdr:sp macro="" textlink="">
@@ -3180,7 +3196,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4433454" y="6303819"/>
+          <a:off x="4227576" y="6106285"/>
           <a:ext cx="727363" cy="530658"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3228,10 +3244,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>57727</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>230618</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>12808</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="549438" cy="530658"/>
     <xdr:sp macro="" textlink="">
@@ -3247,7 +3263,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5715000" y="6280727"/>
+          <a:off x="3547559" y="6736337"/>
           <a:ext cx="549438" cy="530658"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3991,8 +4007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="L86" sqref="L86"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="151" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="Y69" sqref="Y69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6036,7 +6052,7 @@
       <c r="T50" s="8"/>
       <c r="U50" s="8"/>
       <c r="V50" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
@@ -6081,7 +6097,7 @@
       <c r="U51" s="8"/>
       <c r="V51" s="2"/>
       <c r="W51" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
@@ -6526,7 +6542,7 @@
       <c r="B62" s="6"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -6610,7 +6626,7 @@
       <c r="B64" s="6"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -6862,7 +6878,7 @@
       <c r="B70" s="6"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -6947,8 +6963,8 @@
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="2" t="s">
-        <v>61</v>
+      <c r="F72" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -6991,7 +7007,9 @@
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
+      <c r="F73" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
@@ -7278,7 +7296,7 @@
       <c r="J79" s="15"/>
       <c r="K79" s="17"/>
       <c r="L79" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>
@@ -7378,7 +7396,7 @@
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
       <c r="L81" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
@@ -7416,13 +7434,13 @@
         <v>4</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
@@ -7449,7 +7467,7 @@
       <c r="Y82" s="15"/>
       <c r="Z82" s="17"/>
       <c r="AA82" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB82" s="15"/>
       <c r="AC82" s="17"/>
@@ -7472,19 +7490,19 @@
         <v>5</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
       <c r="L83" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
@@ -7505,7 +7523,7 @@
       <c r="Y83" s="15"/>
       <c r="Z83" s="17"/>
       <c r="AA83" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB83" s="15"/>
       <c r="AC83" s="17"/>
@@ -7530,19 +7548,19 @@
         <v>6</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
       <c r="L84" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
@@ -7563,7 +7581,7 @@
       <c r="Y84" s="15"/>
       <c r="Z84" s="17"/>
       <c r="AA84" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB84" s="15"/>
       <c r="AC84" s="17"/>
@@ -7588,13 +7606,13 @@
         <v>7</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
       <c r="H85" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
@@ -7621,7 +7639,7 @@
       <c r="Y85" s="15"/>
       <c r="Z85" s="17"/>
       <c r="AA85" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB85" s="15"/>
       <c r="AC85" s="17"/>
@@ -7644,19 +7662,19 @@
         <v>8</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
       <c r="G86" s="13"/>
       <c r="H86" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I86" s="16"/>
       <c r="J86" s="15"/>
       <c r="K86" s="17"/>
       <c r="L86" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
@@ -7677,7 +7695,7 @@
       <c r="Y86" s="15"/>
       <c r="Z86" s="17"/>
       <c r="AA86" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB86" s="15"/>
       <c r="AC86" s="17"/>
@@ -7700,19 +7718,19 @@
         <v>9</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
       <c r="G87" s="13"/>
       <c r="H87" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I87" s="16"/>
       <c r="J87" s="15"/>
       <c r="K87" s="17"/>
       <c r="L87" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M87" s="15"/>
       <c r="N87" s="17"/>
@@ -7750,19 +7768,19 @@
         <v>10</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
       <c r="G88" s="13"/>
       <c r="H88" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I88" s="16"/>
       <c r="J88" s="15"/>
       <c r="K88" s="17"/>
       <c r="L88" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M88" s="15"/>
       <c r="N88" s="17"/>
@@ -7800,19 +7818,19 @@
         <v>11</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
       <c r="G89" s="13"/>
       <c r="H89" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I89" s="16"/>
       <c r="J89" s="15"/>
       <c r="K89" s="17"/>
       <c r="L89" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M89" s="15"/>
       <c r="N89" s="17"/>

--- a/doc/外部設計/04_外部設計書（カレンダー更新画面）_チーム名.xlsx
+++ b/doc/外部設計/04_外部設計書（カレンダー更新画面）_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080EB055-EB97-4C30-9F21-AEA9C9EC363D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B090B5C4-787B-42AD-AA31-EA4405FBFA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -320,83 +320,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>4. カレンダー画面でタップした予定の予定IDをもとに、予定マスタから予定名を取得して表示する</t>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>ヨテイメイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>5. カレンダー画面でタップした予定の予定IDをもとに、予定マスタから日時を取得する。取得したデータのうち日付部分をvalueとして表示する</t>
-    <rPh sb="35" eb="37">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="53" eb="57">
-      <t>ヒヅケブブン</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>6. カレンダー画面でタップした予定の予定IDをもとに、予定マスタから日時を取得する。取得したデータのうち時間部分をvalueとして表示する</t>
-    <rPh sb="35" eb="37">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>8. カレンダー画面でタップした予定の予定IDをもとに、予定マスタから備考を取得して表示する</t>
-    <rPh sb="35" eb="37">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>7. カレンダー画面でタップした予定の予定IDをもとに、予定マスタから場所を取得して表示する</t>
-    <rPh sb="42" eb="44">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ホーム画面に戻る</t>
     <rPh sb="3" eb="5">
       <t>ガメン</t>
@@ -738,6 +661,101 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>7. 日付詳細画面でタップした予定の予定IDをもとに、予定マスタから場所を取得して表示する</t>
+    <rPh sb="3" eb="5">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6. 日付詳細画面でタップした予定の予定IDをもとに、予定マスタから日時を取得する。取得したデータのうち時間部分をvalueとして表示する</t>
+    <rPh sb="3" eb="5">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5. 日付詳細画面でタップした予定の予定IDをもとに、予定マスタから日時を取得する。取得したデータのうち日付部分をvalueとして表示する</t>
+    <rPh sb="3" eb="5">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="52" eb="56">
+      <t>ヒヅケブブン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>4. 日付詳細画面でタップした予定の予定IDをもとに、予定マスタから予定名を取得して表示する</t>
+    <rPh sb="3" eb="5">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>ヨテイメイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8. 日付詳細画面でタップした予定の予定IDをもとに、予定マスタから備考を取得して表示する</t>
+    <rPh sb="3" eb="7">
+      <t>ヒヅケショウサイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1282,8 +1300,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3134463" y="1239085"/>
-          <a:ext cx="3948628" cy="6028984"/>
+          <a:off x="3152546" y="1231515"/>
+          <a:ext cx="3973860" cy="5989875"/>
           <a:chOff x="22637451" y="653712"/>
           <a:chExt cx="2702106" cy="4070774"/>
         </a:xfrm>
@@ -4007,8 +4025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="151" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="Y69" sqref="Y69"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="96" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5778,7 +5796,7 @@
       <c r="D44" s="8"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -5822,7 +5840,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -5866,7 +5884,7 @@
       <c r="D46" s="8"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -5910,7 +5928,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -5952,7 +5970,7 @@
       <c r="B48" s="6"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -6052,7 +6070,7 @@
       <c r="T50" s="8"/>
       <c r="U50" s="8"/>
       <c r="V50" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
@@ -6078,7 +6096,7 @@
       <c r="B51" s="6"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -6097,7 +6115,7 @@
       <c r="U51" s="8"/>
       <c r="V51" s="2"/>
       <c r="W51" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
@@ -6164,7 +6182,7 @@
       <c r="B53" s="6"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -6415,7 +6433,7 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="E59" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -6458,7 +6476,7 @@
       <c r="B60" s="6"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -6499,7 +6517,7 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="E61" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -6542,7 +6560,7 @@
       <c r="B62" s="6"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -6583,7 +6601,7 @@
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="E63" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -6626,7 +6644,7 @@
       <c r="B64" s="6"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -6667,7 +6685,7 @@
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="E65" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -6710,7 +6728,7 @@
       <c r="B66" s="6"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -6751,7 +6769,7 @@
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="E67" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -6794,7 +6812,7 @@
       <c r="B68" s="6"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -6835,7 +6853,7 @@
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="E69" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -6878,7 +6896,7 @@
       <c r="B70" s="6"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -6919,7 +6937,7 @@
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="E71" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -6964,7 +6982,7 @@
       <c r="D72" s="8"/>
       <c r="E72" s="2"/>
       <c r="F72" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -7008,7 +7026,7 @@
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
       <c r="F73" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
@@ -7296,7 +7314,7 @@
       <c r="J79" s="15"/>
       <c r="K79" s="17"/>
       <c r="L79" s="14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>
@@ -7396,7 +7414,7 @@
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
       <c r="L81" s="14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
@@ -7434,13 +7452,13 @@
         <v>4</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
@@ -7467,7 +7485,7 @@
       <c r="Y82" s="15"/>
       <c r="Z82" s="17"/>
       <c r="AA82" s="14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="AB82" s="15"/>
       <c r="AC82" s="17"/>
@@ -7490,19 +7508,19 @@
         <v>5</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
       <c r="L83" s="14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
@@ -7523,7 +7541,7 @@
       <c r="Y83" s="15"/>
       <c r="Z83" s="17"/>
       <c r="AA83" s="14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB83" s="15"/>
       <c r="AC83" s="17"/>
@@ -7548,19 +7566,19 @@
         <v>6</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
       <c r="L84" s="14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
@@ -7581,7 +7599,7 @@
       <c r="Y84" s="15"/>
       <c r="Z84" s="17"/>
       <c r="AA84" s="14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB84" s="15"/>
       <c r="AC84" s="17"/>
@@ -7606,13 +7624,13 @@
         <v>7</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
       <c r="H85" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
@@ -7639,7 +7657,7 @@
       <c r="Y85" s="15"/>
       <c r="Z85" s="17"/>
       <c r="AA85" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AB85" s="15"/>
       <c r="AC85" s="17"/>
@@ -7662,19 +7680,19 @@
         <v>8</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
       <c r="G86" s="13"/>
       <c r="H86" s="14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I86" s="16"/>
       <c r="J86" s="15"/>
       <c r="K86" s="17"/>
       <c r="L86" s="14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
@@ -7695,7 +7713,7 @@
       <c r="Y86" s="15"/>
       <c r="Z86" s="17"/>
       <c r="AA86" s="14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AB86" s="15"/>
       <c r="AC86" s="17"/>
@@ -7718,19 +7736,19 @@
         <v>9</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
       <c r="G87" s="13"/>
       <c r="H87" s="14" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I87" s="16"/>
       <c r="J87" s="15"/>
       <c r="K87" s="17"/>
       <c r="L87" s="14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M87" s="15"/>
       <c r="N87" s="17"/>
@@ -7768,19 +7786,19 @@
         <v>10</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
       <c r="G88" s="13"/>
       <c r="H88" s="14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I88" s="16"/>
       <c r="J88" s="15"/>
       <c r="K88" s="17"/>
       <c r="L88" s="14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M88" s="15"/>
       <c r="N88" s="17"/>
@@ -7818,19 +7836,19 @@
         <v>11</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
       <c r="G89" s="13"/>
       <c r="H89" s="14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I89" s="16"/>
       <c r="J89" s="15"/>
       <c r="K89" s="17"/>
       <c r="L89" s="14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M89" s="15"/>
       <c r="N89" s="17"/>
